--- a/input/INVENTAIRE042023.xlsx
+++ b/input/INVENTAIRE042023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\donnesavrilmaijuinjuillet\Données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LP\Desktop\dashbord\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B44732-F246-4931-8576-07476F66EE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTAIRE042023" sheetId="1" r:id="rId1"/>
@@ -180,15 +181,9 @@
     <t>CHAMPAGNES</t>
   </si>
   <si>
-    <t>MOET CHANDOM</t>
-  </si>
-  <si>
     <t>210 000 CFA</t>
   </si>
   <si>
-    <t>MOET CHANDOM NECTAR ROSEE</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL CHAMPAGNES </t>
   </si>
   <si>
@@ -841,12 +836,18 @@
   </si>
   <si>
     <t>Avril</t>
+  </si>
+  <si>
+    <t>MOET CHANDON</t>
+  </si>
+  <si>
+    <t>MOET CHANDON NECTAR ROSEE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1328,48 +1329,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1646,14 +1647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N391" sqref="N391"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1687,15 +1688,15 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L2">
         <v>2023</v>
@@ -1706,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L3">
         <v>2023</v>
@@ -1714,7 +1715,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L4">
         <v>2023</v>
@@ -1749,7 +1750,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L5">
         <v>2023</v>
@@ -1757,7 +1758,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L6">
         <v>2023</v>
@@ -1792,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L7">
         <v>2023</v>
@@ -1800,7 +1801,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L8">
         <v>2023</v>
@@ -1808,7 +1809,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L9">
         <v>2023</v>
@@ -1816,7 +1817,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L10">
         <v>2023</v>
@@ -1827,7 +1828,7 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L11">
         <v>2023</v>
@@ -1835,7 +1836,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L12">
         <v>2023</v>
@@ -1873,7 +1874,7 @@
         <v>48000</v>
       </c>
       <c r="K13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L13">
         <v>2023</v>
@@ -1881,7 +1882,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L14">
         <v>2023</v>
@@ -1919,7 +1920,7 @@
         <v>1500</v>
       </c>
       <c r="K15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L15">
         <v>2023</v>
@@ -1927,7 +1928,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L16">
         <v>2023</v>
@@ -1965,7 +1966,7 @@
         <v>32500</v>
       </c>
       <c r="K17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L17">
         <v>2023</v>
@@ -1973,7 +1974,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L18">
         <v>2023</v>
@@ -2011,7 +2012,7 @@
         <v>31500</v>
       </c>
       <c r="K19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L19">
         <v>2023</v>
@@ -2019,7 +2020,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L20">
         <v>2023</v>
@@ -2057,7 +2058,7 @@
         <v>38000</v>
       </c>
       <c r="K21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L21">
         <v>2023</v>
@@ -2065,7 +2066,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L22">
         <v>2023</v>
@@ -2103,7 +2104,7 @@
         <v>12000</v>
       </c>
       <c r="K23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L23">
         <v>2023</v>
@@ -2111,7 +2112,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L24">
         <v>2023</v>
@@ -2149,7 +2150,7 @@
         <v>163500</v>
       </c>
       <c r="K25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L25">
         <v>2023</v>
@@ -2157,7 +2158,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L26">
         <v>2023</v>
@@ -2165,7 +2166,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L27">
         <v>2023</v>
@@ -2173,7 +2174,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L28">
         <v>2023</v>
@@ -2184,7 +2185,7 @@
         <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L29">
         <v>2023</v>
@@ -2192,7 +2193,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L30">
         <v>2023</v>
@@ -2230,7 +2231,7 @@
         <v>40000</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L31">
         <v>2023</v>
@@ -2238,7 +2239,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L32">
         <v>2023</v>
@@ -2276,7 +2277,7 @@
         <v>54000</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L33">
         <v>2023</v>
@@ -2284,7 +2285,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L34">
         <v>2023</v>
@@ -2322,7 +2323,7 @@
         <v>4000</v>
       </c>
       <c r="K35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L35">
         <v>2023</v>
@@ -2330,7 +2331,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L36">
         <v>2023</v>
@@ -2368,7 +2369,7 @@
         <v>54000</v>
       </c>
       <c r="K37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L37">
         <v>2023</v>
@@ -2376,7 +2377,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L38">
         <v>2023</v>
@@ -2414,7 +2415,7 @@
         <v>95000</v>
       </c>
       <c r="K39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L39">
         <v>2023</v>
@@ -2422,7 +2423,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L40">
         <v>2023</v>
@@ -2460,7 +2461,7 @@
         <v>42500</v>
       </c>
       <c r="K41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L41">
         <v>2023</v>
@@ -2468,7 +2469,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L42">
         <v>2023</v>
@@ -2506,7 +2507,7 @@
         <v>22500</v>
       </c>
       <c r="K43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L43">
         <v>2023</v>
@@ -2514,7 +2515,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L44">
         <v>2023</v>
@@ -2552,7 +2553,7 @@
         <v>16000</v>
       </c>
       <c r="K45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L45">
         <v>2023</v>
@@ -2560,7 +2561,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L46">
         <v>2023</v>
@@ -2598,7 +2599,7 @@
         <v>12000</v>
       </c>
       <c r="K47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L47">
         <v>2023</v>
@@ -2606,7 +2607,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L48">
         <v>2023</v>
@@ -2644,7 +2645,7 @@
         <v>42000</v>
       </c>
       <c r="K49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L49">
         <v>2023</v>
@@ -2652,7 +2653,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L50">
         <v>2023</v>
@@ -2690,7 +2691,7 @@
         <v>32000</v>
       </c>
       <c r="K51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L51">
         <v>2023</v>
@@ -2698,7 +2699,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L52">
         <v>2023</v>
@@ -2736,7 +2737,7 @@
         <v>414000</v>
       </c>
       <c r="K53" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L53">
         <v>2023</v>
@@ -2744,7 +2745,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L54">
         <v>2023</v>
@@ -2752,7 +2753,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K55" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L55">
         <v>2023</v>
@@ -2760,7 +2761,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K56" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L56">
         <v>2023</v>
@@ -2771,7 +2772,7 @@
         <v>52</v>
       </c>
       <c r="K57" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L57">
         <v>2023</v>
@@ -2779,7 +2780,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L58">
         <v>2023</v>
@@ -2787,7 +2788,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -2802,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -2811,13 +2812,13 @@
         <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J59">
         <v>210000</v>
       </c>
       <c r="K59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L59">
         <v>2023</v>
@@ -2825,7 +2826,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L60">
         <v>2023</v>
@@ -2833,7 +2834,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2863,7 +2864,7 @@
         <v>95000</v>
       </c>
       <c r="K61" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L61">
         <v>2023</v>
@@ -2871,7 +2872,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L62">
         <v>2023</v>
@@ -2879,7 +2880,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -2894,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -2903,13 +2904,13 @@
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J63">
         <v>305000</v>
       </c>
       <c r="K63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L63">
         <v>2023</v>
@@ -2917,7 +2918,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L64">
         <v>2023</v>
@@ -2925,7 +2926,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L65">
         <v>2023</v>
@@ -2933,7 +2934,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L66">
         <v>2023</v>
@@ -2941,10 +2942,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L67">
         <v>2023</v>
@@ -2952,7 +2953,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K68" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L68">
         <v>2023</v>
@@ -2960,7 +2961,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -2975,7 +2976,7 @@
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -2984,13 +2985,13 @@
         <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J69">
         <v>14000</v>
       </c>
       <c r="K69" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L69">
         <v>2023</v>
@@ -2998,7 +2999,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L70">
         <v>2023</v>
@@ -3006,7 +3007,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B71">
         <v>47</v>
@@ -3021,7 +3022,7 @@
         <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -3030,13 +3031,13 @@
         <v>12</v>
       </c>
       <c r="I71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J71">
         <v>282000</v>
       </c>
       <c r="K71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L71">
         <v>2023</v>
@@ -3044,7 +3045,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K72" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L72">
         <v>2023</v>
@@ -3052,7 +3053,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B73">
         <v>51</v>
@@ -3067,7 +3068,7 @@
         <v>51</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
@@ -3076,13 +3077,13 @@
         <v>12</v>
       </c>
       <c r="I73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J73">
         <v>296000</v>
       </c>
       <c r="K73" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L73">
         <v>2023</v>
@@ -3090,7 +3091,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K74" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L74">
         <v>2023</v>
@@ -3098,7 +3099,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K75" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L75">
         <v>2023</v>
@@ -3106,7 +3107,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L76">
         <v>2023</v>
@@ -3114,10 +3115,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K77" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L77">
         <v>2023</v>
@@ -3125,7 +3126,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K78" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L78">
         <v>2023</v>
@@ -3133,7 +3134,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -3148,7 +3149,7 @@
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -3157,13 +3158,13 @@
         <v>12</v>
       </c>
       <c r="I79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J79">
         <v>13500</v>
       </c>
       <c r="K79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L79">
         <v>2023</v>
@@ -3171,7 +3172,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K80" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L80">
         <v>2023</v>
@@ -3179,7 +3180,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -3209,7 +3210,7 @@
         <v>22500</v>
       </c>
       <c r="K81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L81">
         <v>2023</v>
@@ -3217,7 +3218,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L82">
         <v>2023</v>
@@ -3225,7 +3226,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3240,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
@@ -3249,13 +3250,13 @@
         <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J83">
         <v>4500</v>
       </c>
       <c r="K83" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L83">
         <v>2023</v>
@@ -3263,7 +3264,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L84">
         <v>2023</v>
@@ -3271,7 +3272,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -3301,7 +3302,7 @@
         <v>22500</v>
       </c>
       <c r="K85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L85">
         <v>2023</v>
@@ -3309,7 +3310,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K86" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L86">
         <v>2023</v>
@@ -3317,7 +3318,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -3332,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>
@@ -3341,13 +3342,13 @@
         <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J87">
         <v>36000</v>
       </c>
       <c r="K87" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L87">
         <v>2023</v>
@@ -3355,7 +3356,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L88">
         <v>2023</v>
@@ -3363,7 +3364,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B89">
         <v>20</v>
@@ -3378,7 +3379,7 @@
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
@@ -3387,13 +3388,13 @@
         <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J89">
         <v>90000</v>
       </c>
       <c r="K89" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L89">
         <v>2023</v>
@@ -3401,7 +3402,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L90">
         <v>2023</v>
@@ -3409,7 +3410,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -3439,7 +3440,7 @@
         <v>22500</v>
       </c>
       <c r="K91" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L91">
         <v>2023</v>
@@ -3447,7 +3448,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L92">
         <v>2023</v>
@@ -3455,7 +3456,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B93">
         <v>33</v>
@@ -3470,7 +3471,7 @@
         <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G93" t="s">
         <v>12</v>
@@ -3479,13 +3480,13 @@
         <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J93">
         <v>148500</v>
       </c>
       <c r="K93" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L93">
         <v>2023</v>
@@ -3493,7 +3494,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L94">
         <v>2023</v>
@@ -3501,7 +3502,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3528,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="K95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L95">
         <v>2023</v>
@@ -3536,7 +3537,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K96" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L96">
         <v>2023</v>
@@ -3544,7 +3545,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -3559,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -3568,13 +3569,13 @@
         <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J97">
         <v>9000</v>
       </c>
       <c r="K97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L97">
         <v>2023</v>
@@ -3582,7 +3583,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K98" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L98">
         <v>2023</v>
@@ -3590,7 +3591,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B99">
         <v>12</v>
@@ -3620,7 +3621,7 @@
         <v>54000</v>
       </c>
       <c r="K99" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L99">
         <v>2023</v>
@@ -3628,7 +3629,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L100">
         <v>2023</v>
@@ -3636,7 +3637,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B101">
         <v>17</v>
@@ -3651,7 +3652,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
@@ -3660,13 +3661,13 @@
         <v>12</v>
       </c>
       <c r="I101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J101">
         <v>76500</v>
       </c>
       <c r="K101" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L101">
         <v>2023</v>
@@ -3674,7 +3675,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L102">
         <v>2023</v>
@@ -3682,7 +3683,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -3697,7 +3698,7 @@
         <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G103" t="s">
         <v>12</v>
@@ -3706,13 +3707,13 @@
         <v>12</v>
       </c>
       <c r="I103" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J103">
         <v>18000</v>
       </c>
       <c r="K103" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L103">
         <v>2023</v>
@@ -3720,7 +3721,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K104" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L104">
         <v>2023</v>
@@ -3728,7 +3729,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B105">
         <v>13</v>
@@ -3743,7 +3744,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G105" t="s">
         <v>12</v>
@@ -3752,13 +3753,13 @@
         <v>12</v>
       </c>
       <c r="I105" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J105">
         <v>58500</v>
       </c>
       <c r="K105" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L105">
         <v>2023</v>
@@ -3766,7 +3767,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K106" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L106">
         <v>2023</v>
@@ -3774,7 +3775,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B107">
         <v>128</v>
@@ -3789,7 +3790,7 @@
         <v>130</v>
       </c>
       <c r="F107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
@@ -3798,13 +3799,13 @@
         <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J107">
         <v>576000</v>
       </c>
       <c r="K107" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L107">
         <v>2023</v>
@@ -3812,7 +3813,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L108">
         <v>2023</v>
@@ -3820,7 +3821,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L109">
         <v>2023</v>
@@ -3828,7 +3829,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K110" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L110">
         <v>2023</v>
@@ -3836,10 +3837,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L111">
         <v>2023</v>
@@ -3847,7 +3848,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K112" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L112">
         <v>2023</v>
@@ -3855,7 +3856,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -3885,7 +3886,7 @@
         <v>12000</v>
       </c>
       <c r="K113" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L113">
         <v>2023</v>
@@ -3893,7 +3894,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K114" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L114">
         <v>2023</v>
@@ -3901,7 +3902,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -3931,7 +3932,7 @@
         <v>12000</v>
       </c>
       <c r="K115" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L115">
         <v>2023</v>
@@ -3939,7 +3940,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K116" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L116">
         <v>2023</v>
@@ -3947,7 +3948,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B117">
         <v>8</v>
@@ -3977,7 +3978,7 @@
         <v>32000</v>
       </c>
       <c r="K117" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L117">
         <v>2023</v>
@@ -3985,7 +3986,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K118" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L118">
         <v>2023</v>
@@ -3993,7 +3994,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B119">
         <v>15</v>
@@ -4008,7 +4009,7 @@
         <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G119" t="s">
         <v>12</v>
@@ -4017,13 +4018,13 @@
         <v>12</v>
       </c>
       <c r="I119" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J119">
         <v>60000</v>
       </c>
       <c r="K119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L119">
         <v>2023</v>
@@ -4031,7 +4032,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K120" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L120">
         <v>2023</v>
@@ -4039,7 +4040,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B121">
         <v>8</v>
@@ -4069,7 +4070,7 @@
         <v>32000</v>
       </c>
       <c r="K121" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L121">
         <v>2023</v>
@@ -4077,7 +4078,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K122" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L122">
         <v>2023</v>
@@ -4085,7 +4086,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B123">
         <v>26</v>
@@ -4100,7 +4101,7 @@
         <v>26</v>
       </c>
       <c r="F123" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
@@ -4109,13 +4110,13 @@
         <v>12</v>
       </c>
       <c r="I123" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J123">
         <v>104000</v>
       </c>
       <c r="K123" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L123">
         <v>2023</v>
@@ -4123,7 +4124,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K124" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L124">
         <v>2023</v>
@@ -4131,7 +4132,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B125">
         <v>25</v>
@@ -4146,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G125" t="s">
         <v>12</v>
@@ -4155,13 +4156,13 @@
         <v>12</v>
       </c>
       <c r="I125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J125">
         <v>100000</v>
       </c>
       <c r="K125" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L125">
         <v>2023</v>
@@ -4169,7 +4170,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K126" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L126">
         <v>2023</v>
@@ -4177,7 +4178,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B127">
         <v>88</v>
@@ -4192,7 +4193,7 @@
         <v>88</v>
       </c>
       <c r="F127" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G127" t="s">
         <v>12</v>
@@ -4201,13 +4202,13 @@
         <v>12</v>
       </c>
       <c r="I127" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J127">
         <v>352000</v>
       </c>
       <c r="K127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L127">
         <v>2023</v>
@@ -4215,7 +4216,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K128" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L128">
         <v>2023</v>
@@ -4223,7 +4224,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K129" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L129">
         <v>2023</v>
@@ -4231,7 +4232,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K130" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L130">
         <v>2023</v>
@@ -4239,10 +4240,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K131" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L131">
         <v>2023</v>
@@ -4250,7 +4251,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K132" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L132">
         <v>2023</v>
@@ -4258,7 +4259,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B133">
         <v>11</v>
@@ -4273,7 +4274,7 @@
         <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G133" t="s">
         <v>12</v>
@@ -4282,13 +4283,13 @@
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J133">
         <v>55000</v>
       </c>
       <c r="K133" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L133">
         <v>2023</v>
@@ -4296,7 +4297,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L134">
         <v>2023</v>
@@ -4304,7 +4305,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B135">
         <v>11</v>
@@ -4319,7 +4320,7 @@
         <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G135" t="s">
         <v>12</v>
@@ -4328,13 +4329,13 @@
         <v>12</v>
       </c>
       <c r="I135" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J135">
         <v>55000</v>
       </c>
       <c r="K135" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L135">
         <v>2023</v>
@@ -4342,7 +4343,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K136" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L136">
         <v>2023</v>
@@ -4350,7 +4351,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L137">
         <v>2023</v>
@@ -4358,7 +4359,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L138">
         <v>2023</v>
@@ -4366,10 +4367,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L139">
         <v>2023</v>
@@ -4377,7 +4378,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L140">
         <v>2023</v>
@@ -4385,7 +4386,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -4400,7 +4401,7 @@
         <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
@@ -4409,13 +4410,13 @@
         <v>12</v>
       </c>
       <c r="I141" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J141">
         <v>6000</v>
       </c>
       <c r="K141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L141">
         <v>2023</v>
@@ -4423,7 +4424,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L142">
         <v>2023</v>
@@ -4431,7 +4432,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -4446,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
@@ -4455,13 +4456,13 @@
         <v>12</v>
       </c>
       <c r="I143" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J143">
         <v>3500</v>
       </c>
       <c r="K143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L143">
         <v>2023</v>
@@ -4469,7 +4470,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K144" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L144">
         <v>2023</v>
@@ -4477,7 +4478,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -4492,7 +4493,7 @@
         <v>3</v>
       </c>
       <c r="F145" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G145" t="s">
         <v>12</v>
@@ -4501,13 +4502,13 @@
         <v>12</v>
       </c>
       <c r="I145" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J145">
         <v>9500</v>
       </c>
       <c r="K145" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L145">
         <v>2023</v>
@@ -4515,7 +4516,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K146" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L146">
         <v>2023</v>
@@ -4523,7 +4524,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K147" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L147">
         <v>2023</v>
@@ -4531,7 +4532,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K148" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L148">
         <v>2023</v>
@@ -4539,10 +4540,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K149" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L149">
         <v>2023</v>
@@ -4550,7 +4551,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K150" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L150">
         <v>2023</v>
@@ -4558,7 +4559,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4573,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G151" t="s">
         <v>12</v>
@@ -4582,13 +4583,13 @@
         <v>12</v>
       </c>
       <c r="I151" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J151">
         <v>50000</v>
       </c>
       <c r="K151" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L151">
         <v>2023</v>
@@ -4596,7 +4597,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K152" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L152">
         <v>2023</v>
@@ -4604,7 +4605,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4619,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G153" t="s">
         <v>12</v>
@@ -4628,13 +4629,13 @@
         <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J153">
         <v>50000</v>
       </c>
       <c r="K153" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L153">
         <v>2023</v>
@@ -4642,7 +4643,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K154" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L154">
         <v>2023</v>
@@ -4650,7 +4651,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K155" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L155">
         <v>2023</v>
@@ -4658,7 +4659,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K156" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L156">
         <v>2023</v>
@@ -4666,10 +4667,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K157" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L157">
         <v>2023</v>
@@ -4677,7 +4678,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K158" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L158">
         <v>2023</v>
@@ -4685,7 +4686,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -4700,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
@@ -4709,13 +4710,13 @@
         <v>12</v>
       </c>
       <c r="I159" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J159">
         <v>18000</v>
       </c>
       <c r="K159" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L159">
         <v>2023</v>
@@ -4723,7 +4724,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K160" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L160">
         <v>2023</v>
@@ -4731,7 +4732,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -4746,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="F161" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G161" t="s">
         <v>12</v>
@@ -4755,13 +4756,13 @@
         <v>12</v>
       </c>
       <c r="I161" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J161">
         <v>18000</v>
       </c>
       <c r="K161" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L161">
         <v>2023</v>
@@ -4769,7 +4770,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K162" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L162">
         <v>2023</v>
@@ -4777,7 +4778,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -4807,7 +4808,7 @@
         <v>12000</v>
       </c>
       <c r="K163" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L163">
         <v>2023</v>
@@ -4815,7 +4816,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K164" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L164">
         <v>2023</v>
@@ -4823,7 +4824,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B165">
         <v>8</v>
@@ -4853,7 +4854,7 @@
         <v>48000</v>
       </c>
       <c r="K165" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L165">
         <v>2023</v>
@@ -4861,7 +4862,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K166" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L166">
         <v>2023</v>
@@ -4869,7 +4870,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -4884,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="F167" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G167" t="s">
         <v>12</v>
@@ -4893,13 +4894,13 @@
         <v>12</v>
       </c>
       <c r="I167" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J167">
         <v>24000</v>
       </c>
       <c r="K167" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L167">
         <v>2023</v>
@@ -4907,7 +4908,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K168" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L168">
         <v>2023</v>
@@ -4915,7 +4916,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B169">
         <v>20</v>
@@ -4930,7 +4931,7 @@
         <v>20</v>
       </c>
       <c r="F169" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G169" t="s">
         <v>12</v>
@@ -4939,13 +4940,13 @@
         <v>12</v>
       </c>
       <c r="I169" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J169">
         <v>120000</v>
       </c>
       <c r="K169" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L169">
         <v>2023</v>
@@ -4953,7 +4954,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K170" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L170">
         <v>2023</v>
@@ -4961,7 +4962,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K171" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L171">
         <v>2023</v>
@@ -4969,7 +4970,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K172" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L172">
         <v>2023</v>
@@ -4977,10 +4978,10 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K173" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L173">
         <v>2023</v>
@@ -4988,7 +4989,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K174" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L174">
         <v>2023</v>
@@ -4996,7 +4997,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B175">
         <v>14</v>
@@ -5011,7 +5012,7 @@
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G175" t="s">
         <v>12</v>
@@ -5020,13 +5021,13 @@
         <v>12</v>
       </c>
       <c r="I175" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J175">
         <v>49000</v>
       </c>
       <c r="K175" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L175">
         <v>2023</v>
@@ -5034,7 +5035,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K176" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L176">
         <v>2023</v>
@@ -5042,7 +5043,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5057,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G177" t="s">
         <v>12</v>
@@ -5066,13 +5067,13 @@
         <v>12</v>
       </c>
       <c r="I177" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J177">
         <v>45000</v>
       </c>
       <c r="K177" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L177">
         <v>2023</v>
@@ -5080,7 +5081,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K178" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L178">
         <v>2023</v>
@@ -5088,7 +5089,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B179">
         <v>6</v>
@@ -5103,7 +5104,7 @@
         <v>6</v>
       </c>
       <c r="F179" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G179" t="s">
         <v>12</v>
@@ -5112,13 +5113,13 @@
         <v>12</v>
       </c>
       <c r="I179" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J179">
         <v>15000</v>
       </c>
       <c r="K179" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L179">
         <v>2023</v>
@@ -5126,7 +5127,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K180" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L180">
         <v>2023</v>
@@ -5134,7 +5135,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5149,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G181" t="s">
         <v>12</v>
@@ -5158,13 +5159,13 @@
         <v>12</v>
       </c>
       <c r="I181" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J181">
         <v>35000</v>
       </c>
       <c r="K181" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L181">
         <v>2023</v>
@@ -5172,7 +5173,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K182" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L182">
         <v>2023</v>
@@ -5180,7 +5181,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B183">
         <v>22</v>
@@ -5195,7 +5196,7 @@
         <v>22</v>
       </c>
       <c r="F183" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G183" t="s">
         <v>12</v>
@@ -5204,13 +5205,13 @@
         <v>12</v>
       </c>
       <c r="I183" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J183">
         <v>144000</v>
       </c>
       <c r="K183" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L183">
         <v>2023</v>
@@ -5218,7 +5219,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K184" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L184">
         <v>2023</v>
@@ -5226,7 +5227,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K185" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L185">
         <v>2023</v>
@@ -5234,7 +5235,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K186" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L186">
         <v>2023</v>
@@ -5242,10 +5243,10 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K187" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L187">
         <v>2023</v>
@@ -5253,7 +5254,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K188" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L188">
         <v>2023</v>
@@ -5261,7 +5262,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B189">
         <v>10</v>
@@ -5291,7 +5292,7 @@
         <v>40000</v>
       </c>
       <c r="K189" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L189">
         <v>2023</v>
@@ -5299,7 +5300,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K190" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L190">
         <v>2023</v>
@@ -5307,7 +5308,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -5337,7 +5338,7 @@
         <v>12000</v>
       </c>
       <c r="K191" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L191">
         <v>2023</v>
@@ -5345,7 +5346,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K192" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L192">
         <v>2023</v>
@@ -5353,7 +5354,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B193">
         <v>5</v>
@@ -5368,7 +5369,7 @@
         <v>5</v>
       </c>
       <c r="F193" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G193" t="s">
         <v>12</v>
@@ -5377,13 +5378,13 @@
         <v>12</v>
       </c>
       <c r="I193" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J193">
         <v>25000</v>
       </c>
       <c r="K193" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L193">
         <v>2023</v>
@@ -5391,7 +5392,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K194" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L194">
         <v>2023</v>
@@ -5399,7 +5400,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B195">
         <v>5</v>
@@ -5414,7 +5415,7 @@
         <v>5</v>
       </c>
       <c r="F195" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G195" t="s">
         <v>12</v>
@@ -5423,13 +5424,13 @@
         <v>12</v>
       </c>
       <c r="I195" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J195">
         <v>25000</v>
       </c>
       <c r="K195" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L195">
         <v>2023</v>
@@ -5437,7 +5438,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K196" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L196">
         <v>2023</v>
@@ -5445,7 +5446,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B197">
         <v>22</v>
@@ -5460,7 +5461,7 @@
         <v>22</v>
       </c>
       <c r="F197" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G197" t="s">
         <v>12</v>
@@ -5469,13 +5470,13 @@
         <v>12</v>
       </c>
       <c r="I197" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J197">
         <v>102000</v>
       </c>
       <c r="K197" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L197">
         <v>2023</v>
@@ -5483,7 +5484,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K198" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L198">
         <v>2023</v>
@@ -5491,7 +5492,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K199" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L199">
         <v>2023</v>
@@ -5499,7 +5500,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K200" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L200">
         <v>2023</v>
@@ -5507,10 +5508,10 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K201" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L201">
         <v>2023</v>
@@ -5518,7 +5519,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K202" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L202">
         <v>2023</v>
@@ -5526,7 +5527,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B203">
         <v>4</v>
@@ -5541,7 +5542,7 @@
         <v>4</v>
       </c>
       <c r="F203" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G203" t="s">
         <v>12</v>
@@ -5550,13 +5551,13 @@
         <v>12</v>
       </c>
       <c r="I203" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J203">
         <v>30000</v>
       </c>
       <c r="K203" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L203">
         <v>2023</v>
@@ -5564,7 +5565,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K204" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L204">
         <v>2023</v>
@@ -5572,7 +5573,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5602,7 +5603,7 @@
         <v>12000</v>
       </c>
       <c r="K205" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L205">
         <v>2023</v>
@@ -5610,7 +5611,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K206" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L206">
         <v>2023</v>
@@ -5618,7 +5619,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B207">
         <v>20</v>
@@ -5633,7 +5634,7 @@
         <v>20</v>
       </c>
       <c r="F207" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G207" t="s">
         <v>12</v>
@@ -5642,13 +5643,13 @@
         <v>12</v>
       </c>
       <c r="I207" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J207">
         <v>150000</v>
       </c>
       <c r="K207" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L207">
         <v>2023</v>
@@ -5656,7 +5657,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K208" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L208">
         <v>2023</v>
@@ -5664,7 +5665,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B209">
         <v>25</v>
@@ -5679,7 +5680,7 @@
         <v>25</v>
       </c>
       <c r="F209" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G209" t="s">
         <v>12</v>
@@ -5688,13 +5689,13 @@
         <v>12</v>
       </c>
       <c r="I209" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J209">
         <v>192000</v>
       </c>
       <c r="K209" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L209">
         <v>2023</v>
@@ -5702,7 +5703,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K210" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L210">
         <v>2023</v>
@@ -5710,7 +5711,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K211" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L211">
         <v>2023</v>
@@ -5718,7 +5719,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K212" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L212">
         <v>2023</v>
@@ -5726,10 +5727,10 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K213" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L213">
         <v>2023</v>
@@ -5737,7 +5738,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K214" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L214">
         <v>2023</v>
@@ -5745,7 +5746,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B215">
         <v>5</v>
@@ -5760,7 +5761,7 @@
         <v>5</v>
       </c>
       <c r="F215" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G215" t="s">
         <v>12</v>
@@ -5769,13 +5770,13 @@
         <v>12</v>
       </c>
       <c r="I215" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J215">
         <v>200000</v>
       </c>
       <c r="K215" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L215">
         <v>2023</v>
@@ -5783,7 +5784,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K216" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L216">
         <v>2023</v>
@@ -5791,7 +5792,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5806,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G217" t="s">
         <v>12</v>
@@ -5815,13 +5816,13 @@
         <v>12</v>
       </c>
       <c r="I217" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J217">
         <v>3000</v>
       </c>
       <c r="K217" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L217">
         <v>2023</v>
@@ -5829,7 +5830,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K218" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L218">
         <v>2023</v>
@@ -5837,7 +5838,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5867,7 +5868,7 @@
         <v>40000</v>
       </c>
       <c r="K219" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L219">
         <v>2023</v>
@@ -5875,7 +5876,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K220" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L220">
         <v>2023</v>
@@ -5883,7 +5884,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B221">
         <v>7</v>
@@ -5898,7 +5899,7 @@
         <v>7</v>
       </c>
       <c r="F221" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G221" t="s">
         <v>12</v>
@@ -5907,13 +5908,13 @@
         <v>12</v>
       </c>
       <c r="I221" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J221">
         <v>243000</v>
       </c>
       <c r="K221" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L221">
         <v>2023</v>
@@ -5921,7 +5922,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K222" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L222">
         <v>2023</v>
@@ -5929,7 +5930,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K223" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L223">
         <v>2023</v>
@@ -5937,7 +5938,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K224" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L224">
         <v>2023</v>
@@ -5945,10 +5946,10 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K225" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L225">
         <v>2023</v>
@@ -5956,7 +5957,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K226" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L226">
         <v>2023</v>
@@ -5964,7 +5965,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -5994,7 +5995,7 @@
         <v>12000</v>
       </c>
       <c r="K227" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L227">
         <v>2023</v>
@@ -6002,7 +6003,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K228" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L228">
         <v>2023</v>
@@ -6010,7 +6011,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -6025,7 +6026,7 @@
         <v>2</v>
       </c>
       <c r="F229" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G229" t="s">
         <v>12</v>
@@ -6034,13 +6035,13 @@
         <v>12</v>
       </c>
       <c r="I229" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J229">
         <v>6000</v>
       </c>
       <c r="K229" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L229">
         <v>2023</v>
@@ -6048,7 +6049,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K230" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L230">
         <v>2023</v>
@@ -6056,7 +6057,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B231">
         <v>4</v>
@@ -6086,7 +6087,7 @@
         <v>16000</v>
       </c>
       <c r="K231" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L231">
         <v>2023</v>
@@ -6094,7 +6095,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K232" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L232">
         <v>2023</v>
@@ -6102,7 +6103,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B233">
         <v>9</v>
@@ -6117,7 +6118,7 @@
         <v>9</v>
       </c>
       <c r="F233" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G233" t="s">
         <v>12</v>
@@ -6126,13 +6127,13 @@
         <v>12</v>
       </c>
       <c r="I233" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J233">
         <v>34000</v>
       </c>
       <c r="K233" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L233">
         <v>2023</v>
@@ -6140,7 +6141,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K234" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L234">
         <v>2023</v>
@@ -6148,7 +6149,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K235" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L235">
         <v>2023</v>
@@ -6156,7 +6157,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L236">
         <v>2023</v>
@@ -6164,10 +6165,10 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K237" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L237">
         <v>2023</v>
@@ -6175,7 +6176,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K238" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L238">
         <v>2023</v>
@@ -6183,7 +6184,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B239">
         <v>5</v>
@@ -6198,7 +6199,7 @@
         <v>5</v>
       </c>
       <c r="F239" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G239" t="s">
         <v>12</v>
@@ -6207,13 +6208,13 @@
         <v>12</v>
       </c>
       <c r="I239" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J239">
         <v>12500</v>
       </c>
       <c r="K239" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L239">
         <v>2023</v>
@@ -6221,7 +6222,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K240" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L240">
         <v>2023</v>
@@ -6229,7 +6230,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B241">
         <v>14</v>
@@ -6244,7 +6245,7 @@
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G241" t="s">
         <v>12</v>
@@ -6253,13 +6254,13 @@
         <v>12</v>
       </c>
       <c r="I241" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J241">
         <v>35000</v>
       </c>
       <c r="K241" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L241">
         <v>2023</v>
@@ -6267,7 +6268,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L242">
         <v>2023</v>
@@ -6275,7 +6276,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B243">
         <v>3</v>
@@ -6290,7 +6291,7 @@
         <v>3</v>
       </c>
       <c r="F243" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G243" t="s">
         <v>12</v>
@@ -6299,13 +6300,13 @@
         <v>12</v>
       </c>
       <c r="I243" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J243">
         <v>7500</v>
       </c>
       <c r="K243" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L243">
         <v>2023</v>
@@ -6313,7 +6314,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K244" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L244">
         <v>2023</v>
@@ -6321,7 +6322,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B245">
         <v>50</v>
@@ -6336,7 +6337,7 @@
         <v>50</v>
       </c>
       <c r="F245" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G245" t="s">
         <v>12</v>
@@ -6345,13 +6346,13 @@
         <v>12</v>
       </c>
       <c r="I245" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J245">
         <v>125000</v>
       </c>
       <c r="K245" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L245">
         <v>2023</v>
@@ -6359,7 +6360,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K246" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L246">
         <v>2023</v>
@@ -6367,7 +6368,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B247">
         <v>72</v>
@@ -6382,7 +6383,7 @@
         <v>72</v>
       </c>
       <c r="F247" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G247" t="s">
         <v>12</v>
@@ -6391,13 +6392,13 @@
         <v>12</v>
       </c>
       <c r="I247" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J247">
         <v>180000</v>
       </c>
       <c r="K247" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L247">
         <v>2023</v>
@@ -6405,7 +6406,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K248" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L248">
         <v>2023</v>
@@ -6413,7 +6414,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K249" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L249">
         <v>2023</v>
@@ -6421,7 +6422,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K250" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L250">
         <v>2023</v>
@@ -6429,10 +6430,10 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K251" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L251">
         <v>2023</v>
@@ -6440,7 +6441,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K252" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L252">
         <v>2023</v>
@@ -6448,7 +6449,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B253">
         <v>22</v>
@@ -6463,7 +6464,7 @@
         <v>22</v>
       </c>
       <c r="F253" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G253" t="s">
         <v>12</v>
@@ -6472,13 +6473,13 @@
         <v>12</v>
       </c>
       <c r="I253" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J253">
         <v>33000</v>
       </c>
       <c r="K253" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L253">
         <v>2023</v>
@@ -6486,7 +6487,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K254" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L254">
         <v>2023</v>
@@ -6494,7 +6495,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B255">
         <v>12</v>
@@ -6509,7 +6510,7 @@
         <v>12</v>
       </c>
       <c r="F255" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G255" t="s">
         <v>12</v>
@@ -6518,13 +6519,13 @@
         <v>12</v>
       </c>
       <c r="I255" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J255">
         <v>18000</v>
       </c>
       <c r="K255" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L255">
         <v>2023</v>
@@ -6532,7 +6533,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K256" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L256">
         <v>2023</v>
@@ -6540,7 +6541,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B257">
         <v>121</v>
@@ -6555,7 +6556,7 @@
         <v>121</v>
       </c>
       <c r="F257" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G257" t="s">
         <v>12</v>
@@ -6564,13 +6565,13 @@
         <v>12</v>
       </c>
       <c r="I257" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J257">
         <v>60500</v>
       </c>
       <c r="K257" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L257">
         <v>2023</v>
@@ -6578,7 +6579,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K258" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L258">
         <v>2023</v>
@@ -6586,7 +6587,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B259">
         <v>5</v>
@@ -6601,7 +6602,7 @@
         <v>5</v>
       </c>
       <c r="F259" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G259" t="s">
         <v>12</v>
@@ -6610,13 +6611,13 @@
         <v>12</v>
       </c>
       <c r="I259" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J259">
         <v>7500</v>
       </c>
       <c r="K259" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L259">
         <v>2023</v>
@@ -6624,7 +6625,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K260" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L260">
         <v>2023</v>
@@ -6632,7 +6633,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -6647,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="F261" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G261" t="s">
         <v>12</v>
@@ -6656,13 +6657,13 @@
         <v>12</v>
       </c>
       <c r="I261" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J261">
         <v>2500</v>
       </c>
       <c r="K261" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L261">
         <v>2023</v>
@@ -6670,7 +6671,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K262" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L262">
         <v>2023</v>
@@ -6678,7 +6679,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B263">
         <v>35</v>
@@ -6693,7 +6694,7 @@
         <v>35</v>
       </c>
       <c r="F263" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G263" t="s">
         <v>12</v>
@@ -6702,13 +6703,13 @@
         <v>12</v>
       </c>
       <c r="I263" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J263">
         <v>70000</v>
       </c>
       <c r="K263" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L263">
         <v>2023</v>
@@ -6716,7 +6717,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K264" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L264">
         <v>2023</v>
@@ -6724,7 +6725,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -6739,7 +6740,7 @@
         <v>3</v>
       </c>
       <c r="F265" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G265" t="s">
         <v>12</v>
@@ -6748,13 +6749,13 @@
         <v>12</v>
       </c>
       <c r="I265" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J265">
         <v>4500</v>
       </c>
       <c r="K265" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L265">
         <v>2023</v>
@@ -6762,7 +6763,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K266" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L266">
         <v>2023</v>
@@ -6770,7 +6771,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B267">
         <v>10</v>
@@ -6785,7 +6786,7 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G267" t="s">
         <v>12</v>
@@ -6794,13 +6795,13 @@
         <v>12</v>
       </c>
       <c r="I267" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J267">
         <v>20000</v>
       </c>
       <c r="K267" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L267">
         <v>2023</v>
@@ -6808,7 +6809,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K268" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L268">
         <v>2023</v>
@@ -6831,7 +6832,7 @@
         <v>51</v>
       </c>
       <c r="F269" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G269" t="s">
         <v>12</v>
@@ -6840,13 +6841,13 @@
         <v>12</v>
       </c>
       <c r="I269" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J269">
         <v>127500</v>
       </c>
       <c r="K269" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L269">
         <v>2023</v>
@@ -6854,7 +6855,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K270" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L270">
         <v>2023</v>
@@ -6862,7 +6863,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B271">
         <v>28</v>
@@ -6886,13 +6887,13 @@
         <v>18</v>
       </c>
       <c r="I271" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J271">
         <v>40500</v>
       </c>
       <c r="K271" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L271">
         <v>2023</v>
@@ -6900,7 +6901,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K272" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L272">
         <v>2023</v>
@@ -6908,7 +6909,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6938,7 +6939,7 @@
         <v>1500</v>
       </c>
       <c r="K273" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L273">
         <v>2023</v>
@@ -6946,7 +6947,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K274" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L274">
         <v>2023</v>
@@ -6954,7 +6955,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B275">
         <v>289</v>
@@ -6969,7 +6970,7 @@
         <v>289</v>
       </c>
       <c r="F275" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G275" t="s">
         <v>12</v>
@@ -6978,13 +6979,13 @@
         <v>18</v>
       </c>
       <c r="I275" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J275">
         <v>385500</v>
       </c>
       <c r="K275" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L275">
         <v>2023</v>
@@ -6992,7 +6993,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K276" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L276">
         <v>2023</v>
@@ -7000,7 +7001,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K277" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L277">
         <v>2023</v>
@@ -7008,7 +7009,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K278" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L278">
         <v>2023</v>
@@ -7016,10 +7017,10 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K279" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L279">
         <v>2023</v>
@@ -7027,7 +7028,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K280" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L280">
         <v>2023</v>
@@ -7035,7 +7036,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B281">
         <v>5</v>
@@ -7065,7 +7066,7 @@
         <v>42500</v>
       </c>
       <c r="K281" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L281">
         <v>2023</v>
@@ -7073,7 +7074,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K282" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L282">
         <v>2023</v>
@@ -7081,7 +7082,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B283">
         <v>2</v>
@@ -7096,7 +7097,7 @@
         <v>2</v>
       </c>
       <c r="F283" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G283" t="s">
         <v>12</v>
@@ -7105,13 +7106,13 @@
         <v>12</v>
       </c>
       <c r="I283" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J283">
         <v>17000</v>
       </c>
       <c r="K283" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L283">
         <v>2023</v>
@@ -7119,7 +7120,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K284" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L284">
         <v>2023</v>
@@ -7127,7 +7128,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -7142,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="F285" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G285" t="s">
         <v>12</v>
@@ -7151,13 +7152,13 @@
         <v>12</v>
       </c>
       <c r="I285" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J285">
         <v>8500</v>
       </c>
       <c r="K285" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L285">
         <v>2023</v>
@@ -7165,7 +7166,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K286" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L286">
         <v>2023</v>
@@ -7173,7 +7174,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B287">
         <v>2</v>
@@ -7188,7 +7189,7 @@
         <v>2</v>
       </c>
       <c r="F287" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G287" t="s">
         <v>12</v>
@@ -7197,13 +7198,13 @@
         <v>12</v>
       </c>
       <c r="I287" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J287">
         <v>17000</v>
       </c>
       <c r="K287" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L287">
         <v>2023</v>
@@ -7211,7 +7212,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K288" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L288">
         <v>2023</v>
@@ -7219,7 +7220,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B289">
         <v>10</v>
@@ -7234,7 +7235,7 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G289" t="s">
         <v>12</v>
@@ -7243,13 +7244,13 @@
         <v>12</v>
       </c>
       <c r="I289" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J289">
         <v>85000</v>
       </c>
       <c r="K289" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L289">
         <v>2023</v>
@@ -7257,7 +7258,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K290" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L290">
         <v>2023</v>
@@ -7265,7 +7266,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K291" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L291">
         <v>2023</v>
@@ -7273,7 +7274,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K292" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L292">
         <v>2023</v>
@@ -7281,10 +7282,10 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K293" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L293">
         <v>2023</v>
@@ -7292,7 +7293,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K294" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L294">
         <v>2023</v>
@@ -7300,7 +7301,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B295">
         <v>9</v>
@@ -7315,7 +7316,7 @@
         <v>9</v>
       </c>
       <c r="F295" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G295" t="s">
         <v>12</v>
@@ -7324,13 +7325,13 @@
         <v>12</v>
       </c>
       <c r="I295" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J295">
         <v>40500</v>
       </c>
       <c r="K295" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L295">
         <v>2023</v>
@@ -7338,7 +7339,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K296" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L296">
         <v>2023</v>
@@ -7346,7 +7347,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B297">
         <v>5</v>
@@ -7361,7 +7362,7 @@
         <v>5</v>
       </c>
       <c r="F297" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G297" t="s">
         <v>12</v>
@@ -7370,13 +7371,13 @@
         <v>12</v>
       </c>
       <c r="I297" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J297">
         <v>20000</v>
       </c>
       <c r="K297" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L297">
         <v>2023</v>
@@ -7384,7 +7385,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K298" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L298">
         <v>2023</v>
@@ -7392,7 +7393,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B299">
         <v>4</v>
@@ -7422,7 +7423,7 @@
         <v>16000</v>
       </c>
       <c r="K299" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L299">
         <v>2023</v>
@@ -7430,7 +7431,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K300" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L300">
         <v>2023</v>
@@ -7438,7 +7439,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B301">
         <v>11</v>
@@ -7453,7 +7454,7 @@
         <v>11</v>
       </c>
       <c r="F301" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G301" t="s">
         <v>12</v>
@@ -7462,13 +7463,13 @@
         <v>12</v>
       </c>
       <c r="I301" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J301">
         <v>38500</v>
       </c>
       <c r="K301" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L301">
         <v>2023</v>
@@ -7476,7 +7477,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K302" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L302">
         <v>2023</v>
@@ -7484,7 +7485,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B303">
         <v>12</v>
@@ -7499,7 +7500,7 @@
         <v>12</v>
       </c>
       <c r="F303" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G303" t="s">
         <v>12</v>
@@ -7508,13 +7509,13 @@
         <v>12</v>
       </c>
       <c r="I303" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J303">
         <v>120000</v>
       </c>
       <c r="K303" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L303">
         <v>2023</v>
@@ -7522,7 +7523,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K304" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L304">
         <v>2023</v>
@@ -7530,7 +7531,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B305">
         <v>13</v>
@@ -7545,7 +7546,7 @@
         <v>13</v>
       </c>
       <c r="F305" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G305" t="s">
         <v>12</v>
@@ -7554,13 +7555,13 @@
         <v>12</v>
       </c>
       <c r="I305" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J305">
         <v>52000</v>
       </c>
       <c r="K305" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L305">
         <v>2023</v>
@@ -7568,7 +7569,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K306" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L306">
         <v>2023</v>
@@ -7576,7 +7577,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B307">
         <v>54</v>
@@ -7591,7 +7592,7 @@
         <v>54</v>
       </c>
       <c r="F307" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G307" t="s">
         <v>12</v>
@@ -7600,13 +7601,13 @@
         <v>12</v>
       </c>
       <c r="I307" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J307">
         <v>287000</v>
       </c>
       <c r="K307" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L307">
         <v>2023</v>
@@ -7614,7 +7615,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K308" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L308">
         <v>2023</v>
@@ -7622,7 +7623,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K309" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L309">
         <v>2023</v>
@@ -7630,7 +7631,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K310" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L310">
         <v>2023</v>
@@ -7638,10 +7639,10 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K311" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L311">
         <v>2023</v>
@@ -7649,7 +7650,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K312" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L312">
         <v>2023</v>
@@ -7657,7 +7658,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -7672,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="F313" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G313" t="s">
         <v>12</v>
@@ -7681,13 +7682,13 @@
         <v>12</v>
       </c>
       <c r="I313" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J313">
         <v>15000</v>
       </c>
       <c r="K313" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L313">
         <v>2023</v>
@@ -7695,7 +7696,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K314" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L314">
         <v>2023</v>
@@ -7703,7 +7704,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -7718,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="F315" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G315" t="s">
         <v>12</v>
@@ -7727,13 +7728,13 @@
         <v>12</v>
       </c>
       <c r="I315" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J315">
         <v>15000</v>
       </c>
       <c r="K315" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L315">
         <v>2023</v>
@@ -7741,7 +7742,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K316" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L316">
         <v>2023</v>
@@ -7749,7 +7750,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -7764,7 +7765,7 @@
         <v>2</v>
       </c>
       <c r="F317" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G317" t="s">
         <v>12</v>
@@ -7773,13 +7774,13 @@
         <v>12</v>
       </c>
       <c r="I317" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J317">
         <v>30000</v>
       </c>
       <c r="K317" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L317">
         <v>2023</v>
@@ -7787,7 +7788,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K318" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L318">
         <v>2023</v>
@@ -7795,7 +7796,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K319" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L319">
         <v>2023</v>
@@ -7803,7 +7804,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K320" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L320">
         <v>2023</v>
@@ -7811,10 +7812,10 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K321" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L321">
         <v>2023</v>
@@ -7822,7 +7823,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K322" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L322">
         <v>2023</v>
@@ -7830,7 +7831,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B323">
         <v>4</v>
@@ -7845,7 +7846,7 @@
         <v>4</v>
       </c>
       <c r="F323" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G323" t="s">
         <v>12</v>
@@ -7854,13 +7855,13 @@
         <v>12</v>
       </c>
       <c r="I323" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J323">
         <v>100000</v>
       </c>
       <c r="K323" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L323">
         <v>2023</v>
@@ -7868,7 +7869,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K324" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L324">
         <v>2023</v>
@@ -7876,7 +7877,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B325">
         <v>6</v>
@@ -7891,7 +7892,7 @@
         <v>6</v>
       </c>
       <c r="F325" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G325" t="s">
         <v>12</v>
@@ -7900,13 +7901,13 @@
         <v>12</v>
       </c>
       <c r="I325" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J325">
         <v>90000</v>
       </c>
       <c r="K325" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L325">
         <v>2023</v>
@@ -7914,7 +7915,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K326" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L326">
         <v>2023</v>
@@ -7922,7 +7923,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B327">
         <v>10</v>
@@ -7937,7 +7938,7 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G327" t="s">
         <v>12</v>
@@ -7946,13 +7947,13 @@
         <v>12</v>
       </c>
       <c r="I327" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J327">
         <v>190000</v>
       </c>
       <c r="K327" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L327">
         <v>2023</v>
@@ -7960,7 +7961,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K328" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L328">
         <v>2023</v>
@@ -7968,7 +7969,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K329" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L329">
         <v>2023</v>
@@ -7976,7 +7977,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K330" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L330">
         <v>2023</v>
@@ -7984,10 +7985,10 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K331" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L331">
         <v>2023</v>
@@ -7995,7 +7996,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K332" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L332">
         <v>2023</v>
@@ -8003,7 +8004,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B333">
         <v>3</v>
@@ -8018,7 +8019,7 @@
         <v>3</v>
       </c>
       <c r="F333" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G333" t="s">
         <v>12</v>
@@ -8027,13 +8028,13 @@
         <v>12</v>
       </c>
       <c r="I333" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J333">
         <v>60000</v>
       </c>
       <c r="K333" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L333">
         <v>2023</v>
@@ -8041,7 +8042,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K334" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L334">
         <v>2023</v>
@@ -8049,7 +8050,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -8064,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="F335" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G335" t="s">
         <v>12</v>
@@ -8073,13 +8074,13 @@
         <v>12</v>
       </c>
       <c r="I335" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J335">
         <v>15000</v>
       </c>
       <c r="K335" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L335">
         <v>2023</v>
@@ -8087,7 +8088,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K336" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L336">
         <v>2023</v>
@@ -8095,7 +8096,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -8110,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="F337" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G337" t="s">
         <v>12</v>
@@ -8119,13 +8120,13 @@
         <v>12</v>
       </c>
       <c r="I337" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J337">
         <v>45000</v>
       </c>
       <c r="K337" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L337">
         <v>2023</v>
@@ -8133,7 +8134,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K338" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L338">
         <v>2023</v>
@@ -8141,7 +8142,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -8156,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="F339" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G339" t="s">
         <v>12</v>
@@ -8165,13 +8166,13 @@
         <v>12</v>
       </c>
       <c r="I339" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J339">
         <v>25000</v>
       </c>
       <c r="K339" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L339">
         <v>2023</v>
@@ -8179,7 +8180,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K340" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L340">
         <v>2023</v>
@@ -8187,7 +8188,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B341">
         <v>6</v>
@@ -8202,7 +8203,7 @@
         <v>6</v>
       </c>
       <c r="F341" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G341" t="s">
         <v>12</v>
@@ -8211,13 +8212,13 @@
         <v>12</v>
       </c>
       <c r="I341" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J341">
         <v>145000</v>
       </c>
       <c r="K341" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L341">
         <v>2023</v>
@@ -8225,7 +8226,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K342" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L342">
         <v>2023</v>
@@ -8233,7 +8234,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K343" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L343">
         <v>2023</v>
@@ -8241,7 +8242,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K344" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L344">
         <v>2023</v>
@@ -8249,10 +8250,10 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K345" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L345">
         <v>2023</v>
@@ -8260,7 +8261,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K346" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L346">
         <v>2023</v>
@@ -8268,7 +8269,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B347">
         <v>10</v>
@@ -8283,7 +8284,7 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G347" t="s">
         <v>12</v>
@@ -8292,13 +8293,13 @@
         <v>12</v>
       </c>
       <c r="I347" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J347">
         <v>30000</v>
       </c>
       <c r="K347" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L347">
         <v>2023</v>
@@ -8306,7 +8307,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K348" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L348">
         <v>2023</v>
@@ -8314,7 +8315,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B349">
         <v>2</v>
@@ -8329,7 +8330,7 @@
         <v>2</v>
       </c>
       <c r="F349" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G349" t="s">
         <v>12</v>
@@ -8338,13 +8339,13 @@
         <v>12</v>
       </c>
       <c r="I349" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J349">
         <v>80000</v>
       </c>
       <c r="K349" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L349">
         <v>2023</v>
@@ -8352,7 +8353,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K350" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L350">
         <v>2023</v>
@@ -8360,7 +8361,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -8375,7 +8376,7 @@
         <v>1</v>
       </c>
       <c r="F351" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G351" t="s">
         <v>12</v>
@@ -8384,13 +8385,13 @@
         <v>12</v>
       </c>
       <c r="I351" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J351">
         <v>55000</v>
       </c>
       <c r="K351" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L351">
         <v>2023</v>
@@ -8398,7 +8399,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K352" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L352">
         <v>2023</v>
@@ -8406,7 +8407,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B353">
         <v>13</v>
@@ -8421,7 +8422,7 @@
         <v>13</v>
       </c>
       <c r="F353" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G353" t="s">
         <v>12</v>
@@ -8430,13 +8431,13 @@
         <v>12</v>
       </c>
       <c r="I353" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J353">
         <v>165000</v>
       </c>
       <c r="K353" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L353">
         <v>2023</v>
@@ -8444,7 +8445,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K354" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L354">
         <v>2023</v>
@@ -8452,7 +8453,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K355" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L355">
         <v>2023</v>
@@ -8460,7 +8461,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K356" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L356">
         <v>2023</v>
@@ -8468,10 +8469,10 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K357" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L357">
         <v>2023</v>
@@ -8479,7 +8480,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K358" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L358">
         <v>2023</v>
@@ -8487,7 +8488,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B359">
         <v>20</v>
@@ -8502,7 +8503,7 @@
         <v>20</v>
       </c>
       <c r="F359" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G359" t="s">
         <v>12</v>
@@ -8511,13 +8512,13 @@
         <v>12</v>
       </c>
       <c r="I359" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J359">
         <v>80000</v>
       </c>
       <c r="K359" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L359">
         <v>2023</v>
@@ -8525,7 +8526,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K360" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L360">
         <v>2023</v>
@@ -8533,7 +8534,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -8548,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="F361" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G361" t="s">
         <v>12</v>
@@ -8557,13 +8558,13 @@
         <v>12</v>
       </c>
       <c r="I361" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J361">
         <v>50000</v>
       </c>
       <c r="K361" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L361">
         <v>2023</v>
@@ -8571,7 +8572,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K362" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L362">
         <v>2023</v>
@@ -8579,7 +8580,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -8594,7 +8595,7 @@
         <v>2</v>
       </c>
       <c r="F363" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G363" t="s">
         <v>12</v>
@@ -8603,13 +8604,13 @@
         <v>12</v>
       </c>
       <c r="I363" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J363">
         <v>8000</v>
       </c>
       <c r="K363" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L363">
         <v>2023</v>
@@ -8617,7 +8618,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K364" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L364">
         <v>2023</v>
@@ -8625,7 +8626,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B365">
         <v>2</v>
@@ -8640,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="F365" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G365" t="s">
         <v>12</v>
@@ -8649,13 +8650,13 @@
         <v>12</v>
       </c>
       <c r="I365" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J365">
         <v>120000</v>
       </c>
       <c r="K365" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L365">
         <v>2023</v>
@@ -8663,7 +8664,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K366" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L366">
         <v>2023</v>
@@ -8671,7 +8672,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -8686,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="F367" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G367" t="s">
         <v>12</v>
@@ -8695,13 +8696,13 @@
         <v>12</v>
       </c>
       <c r="I367" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J367">
         <v>55000</v>
       </c>
       <c r="K367" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L367">
         <v>2023</v>
@@ -8709,7 +8710,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K368" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L368">
         <v>2023</v>
@@ -8717,7 +8718,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -8732,22 +8733,22 @@
         <v>1</v>
       </c>
       <c r="F369" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G369" t="s">
         <v>12</v>
       </c>
       <c r="H369" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I369" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J369">
         <v>80000</v>
       </c>
       <c r="K369" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L369">
         <v>2023</v>
@@ -8755,7 +8756,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K370" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L370">
         <v>2023</v>
@@ -8763,7 +8764,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -8778,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="F371" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G371" t="s">
         <v>12</v>
@@ -8787,13 +8788,13 @@
         <v>12</v>
       </c>
       <c r="I371" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J371">
         <v>80000</v>
       </c>
       <c r="K371" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L371">
         <v>2023</v>
@@ -8801,7 +8802,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K372" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L372">
         <v>2023</v>
@@ -8809,7 +8810,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -8824,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="F373" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G373" t="s">
         <v>12</v>
@@ -8833,13 +8834,13 @@
         <v>12</v>
       </c>
       <c r="I373" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J373">
         <v>45000</v>
       </c>
       <c r="K373" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L373">
         <v>2023</v>
@@ -8847,7 +8848,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K374" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L374">
         <v>2023</v>
@@ -8855,7 +8856,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B375">
         <v>17</v>
@@ -8870,7 +8871,7 @@
         <v>17</v>
       </c>
       <c r="F375" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G375" t="s">
         <v>12</v>
@@ -8879,13 +8880,13 @@
         <v>12</v>
       </c>
       <c r="I375" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J375">
         <v>59500</v>
       </c>
       <c r="K375" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L375">
         <v>2023</v>
@@ -8893,7 +8894,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K376" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L376">
         <v>2023</v>
@@ -8901,7 +8902,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B377">
         <v>2</v>
@@ -8916,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="F377" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G377" t="s">
         <v>12</v>
@@ -8925,13 +8926,13 @@
         <v>12</v>
       </c>
       <c r="I377" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J377">
         <v>6000</v>
       </c>
       <c r="K377" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L377">
         <v>2023</v>
@@ -8939,7 +8940,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K378" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L378">
         <v>2023</v>
@@ -8947,7 +8948,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B379">
         <v>48</v>
@@ -8962,22 +8963,22 @@
         <v>48</v>
       </c>
       <c r="F379" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G379" t="s">
         <v>12</v>
       </c>
       <c r="H379" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I379" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J379">
         <v>583500</v>
       </c>
       <c r="K379" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L379">
         <v>2023</v>
@@ -8985,7 +8986,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K380" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L380">
         <v>2023</v>
@@ -8993,7 +8994,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K381" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L381">
         <v>2023</v>
@@ -9001,7 +9002,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K382" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L382">
         <v>2023</v>
@@ -9009,10 +9010,10 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B383" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C383">
         <v>17</v>
@@ -9021,25 +9022,25 @@
         <v>0</v>
       </c>
       <c r="E383" t="s">
+        <v>260</v>
+      </c>
+      <c r="F383" t="s">
+        <v>261</v>
+      </c>
+      <c r="G383" t="s">
+        <v>12</v>
+      </c>
+      <c r="H383" t="s">
         <v>262</v>
       </c>
-      <c r="F383" t="s">
+      <c r="I383" t="s">
         <v>263</v>
-      </c>
-      <c r="G383" t="s">
-        <v>12</v>
-      </c>
-      <c r="H383" t="s">
-        <v>264</v>
-      </c>
-      <c r="I383" t="s">
-        <v>265</v>
       </c>
       <c r="J383">
         <v>5107000</v>
       </c>
       <c r="K383" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L383">
         <v>2023</v>
@@ -9047,7 +9048,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K384" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L384">
         <v>2023</v>
@@ -9055,13 +9056,13 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F385" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K385" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L385">
         <v>2023</v>
@@ -9069,7 +9070,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K386" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L386">
         <v>2023</v>
@@ -9077,13 +9078,13 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F387" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K387" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L387">
         <v>2023</v>
@@ -9091,7 +9092,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K388" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L388">
         <v>2023</v>
@@ -9099,10 +9100,10 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B389" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C389">
         <v>17</v>
@@ -9111,13 +9112,13 @@
         <v>0</v>
       </c>
       <c r="E389" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F389" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K389" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L389">
         <v>2023</v>
